--- a/P0011/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0011/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28317"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0011\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FE7F4D-BE44-4139-A173-62A80BE7C1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{E5FE7F4D-BE44-4139-A173-62A80BE7C1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45A4F5BC-E4F9-4B74-8ACC-BA6319888620}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -119,13 +119,10 @@
     <t>pdf</t>
   </si>
   <si>
-    <t>Este documento es el primer entregable de EVOLUTION frente al contrato a ejecutar. Presenta el plan de trabajo, el cronograma, la metodología junto con las actividades y los recursos necesarios para ejecutar el proyecto. El documento se divide en 5. Un primer capítulo de introducción que presenta el objeto del contrato, un glosario que está en anexos y temas preliminares. Un segundo capítulo que menciona de nuevo el objeto del proyecto. Un tercer capítulo que describe de manera general el plan de trabajo que tiene como objetivo realizar el diagnóstico predial y de tenencia de la tierra de 11 municipios de la Mojana, con el fin de obtener la información de cada predio para la actualización de valores comerciales de las zonas geoeconómicas objeto de intervención. Un cuarto capítulo que presenta consideraciones generales sobre puntos a tener en cuenta, reuniones, actas, documentos, soportes, entregables, etc. Y por último, el quinto capítulo más extenso que desarrolla la metodología basada en la división del proyecto en 9 fases, cada una de las cuales contiene actividades detalladas. Dentro de este último capítulo se contemplan los recursos que se necesitan para llevar a cabo el proyecto, tanto personal requerido, como recursos técnicos, físicos y financieros. También se detalla el cronograma, el manejo de la información y el plan de comunicaciones.</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anexo 1: Infraestructura tecnológica para el proyecto, Anexo 2: Soporte jurídico del proceso de investigación de mercado y Anexo 3: Glosario de términos. Los anexos se encuentran en el documento. </t>
+    <t>Este documento es el primer entregable de EVOLUTION frente al contrato a ejecutar. Presenta el plan de trabajo, el cronograma, la metodología junto con las actividades y los recursos necesarios para ejecutar el proyecto. El documento se divide en 5 capítulos. Un primer capítulo de introducción que presenta el objeto del contrato, un glosario que está en anexos y temas preliminares. Un segundo capítulo que menciona de nuevo el objeto del proyecto. Un tercer capítulo que describe de manera general el plan de trabajo que tiene como objetivo realizar el diagnóstico predial y de tenencia de la tierra de 11 municipios de la Mojana, con el fin de obtener la información de cada predio para la actualización de valores comerciales de las zonas geoeconómicas objeto de intervención. Un cuarto capítulo que presenta consideraciones generales sobre puntos a tener en cuenta, reuniones, actas, documentos, soportes, entregables, etc. Y por último, el quinto capítulo más extenso que desarrolla la metodología basada en la división del proyecto en 9 fases, cada una de las cuales contiene actividades detalladas. Dentro de este último capítulo se contemplan los recursos que se necesitan para llevar a cabo el proyecto, tanto personal requerido, como recursos técnicos, físicos y financieros. También se detalla el cronograma, el manejo de la información y el plan de comunicaciones.</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>El documento es un plan de trabajo.</t>
@@ -143,19 +140,16 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0011/02_PRODUCTOS/Entregable 2.pdf</t>
   </si>
   <si>
-    <t>El entregable 2 consiste en una Base de Datos geográfica que contiene la información predial de la región de la Mojana, complementada con información alfanumérica asociada a cada predio, la cual contiene información acerca del tipo de tenencia, la identificación del predio, el nombre del propietario (s) actual (es), la relación jurídico-catastral, el área registrada según folio, el área registrada según catastro, la nomenclatura o identificación del predio, y las afectaciones jurídicas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El objetivo del presente entregable es generar “La base de datos geográfica con información predial que incluya el tipo de tenencia, la identificación del predio, el nombre del propietario (s) actual (es), la relación jurídico-catastral, el área registrada según folio, el área registrada según catastro, la nomenclatura o identificación del predio, y las afectaciones jurídicas, entre otras” para la región de la Mojana. El resultado principal del documento es hacer la entrega de una base de datos con la información predial de la Mojana en formato GDB. Para la obtención del entregable se realizó una organización y estructuración de información entregada por el Fondo Adaptación.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anexo 1: Glosario de términos, Anexo 2: Modelo de datos, Anexo 3: Inventario de cartografía POT por municipio y Anexo 4: Inventario de cartografía por tema. Los anexos se encuentran en el documento. </t>
+    <t>El entregable 2 consiste en una base de datos geográfica que contiene la información predial de la región de La Mojana, complementada con información alfanumérica asociada a cada predio, la cual contiene información acerca del tipo de tenencia, la identificación del predio, el nombre del propietario (s) actual (es), la relación jurídico-catastral, el área registrada según folio, el área registrada según catastro, la nomenclatura o identificación del predio y las afectaciones jurídicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El objetivo del presente entregable es generar “La base de datos geográfica con información predial que incluya el tipo de tenencia, la identificación del predio, el nombre del propietario (s) actual (es), la relación jurídico-catastral, el área registrada según folio, el área registrada según catastro, la nomenclatura o identificación del predio, y las afectaciones jurídicas, entre otras” para la región de La Mojana. El resultado principal del documento es hacer la entrega de una base de datos con la información predial de La Mojana en formato GDB. Para la obtención del entregable se realizó una organización y estructuración de información entregada por el Fondo Adaptación.  </t>
   </si>
   <si>
     <t>El documento es sumamente detallado con respecto a la metodología utilizada para la obtención de la base de datos.</t>
   </si>
   <si>
-    <t>Información predial, tipos de tenencia, relación jurídico-catastral, Información alfanumérica, Información geográfica.</t>
+    <t>Información predial, tipos de tenencia, relación jurídico-catastral, información alfanumérica, información geográfica.</t>
   </si>
   <si>
     <t>PR0003</t>
@@ -167,19 +161,16 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0011/02_PRODUCTOS/Entregable 3.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">El entregable 3 corresponde al documento que contiene el análisis de la información, el diagnóstico, las inconsistencias encontradas y recomendaciones para el FONDO, del manejo del cruce entre los datos de registro y catastro. En el documento se presenta la introducción al entregable, objetivo, consideraciones generales, descripción del entregable, descripción del procesamiento de datos, resultados de análisis y diagnóstico por municipio, conclusiones y anexos.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El documento tiene como objetivo consolidar los resultados del análisis detallado de la información disponible para el desarrollo del proyecto, realizando un diagnóstico de la información disponible, identificando y precisando inconsistencias encontradas y estableciendo recomendaciones para el FONDO. El entregable presenta los resultados obtenidos luego del desarrollo y ejecución de las actividades de procesamiento, análisis y diagnóstico de la información recibida, a partir de la cual se ejecutó un nuevo cruce de información predial, el cual complementa el ejercicio inicial de cruces de información realizado, como insumos para el entregable 2. Para realizar esto se incorporaron nuevos criterios de comparación de las variables a partir de los campos existentes en los datos recibidos, complementado con mejoras en los procesos de estandarización y cruce de los datos. Se obtuvo un análisis exhaustivo y diagnóstico de los datos correspondientes a estudios territoriales (POT, EOT y PBOT), información alfanumérica e información geográfica. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anexo 1: Glosario de términos, Anexo 2: Diagnóstico de capas (Geodatabase).  Los anexos se encuentran en el documento. </t>
+    <t xml:space="preserve">El entregable 3 corresponde al documento que contiene el análisis de la información, el diagnóstico, las inconsistencias encontradas y recomendaciones para el Fondo Adaptación, del manejo del cruce entre los datos de registro y catastro. En el documento se presenta la introducción al entregable, objetivo, consideraciones generales, descripción del entregable, descripción del procesamiento de datos, resultados de análisis y diagnóstico por municipio, conclusiones y anexos.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento tiene como objetivo consolidar los resultados del análisis detallado de la información disponible para el desarrollo del proyecto, realizando un diagnóstico de la información disponible, identificando y precisando inconsistencias encontradas y estableciendo recomendaciones para el Fondo Adaptación. El entregable presenta los resultados obtenidos luego del desarrollo y ejecución de las actividades de procesamiento, análisis y diagnóstico de la información recibida, a partir de la cual se ejecutó un nuevo cruce de información predial, el cual complementa el ejercicio inicial de cruces de información realizado, como insumos para el entregable 2. Para realizar esto se incorporaron nuevos criterios de comparación de las variables a partir de los campos existentes en los datos recibidos, complementado con mejoras en los procesos de estandarización y cruce de los datos. Se obtuvo un análisis exhaustivo y diagnóstico de los datos correspondientes a estudios territoriales (POT, EOT y PBOT), información alfanumérica e información geográfica. </t>
   </si>
   <si>
     <t xml:space="preserve">Se presenta una descripción metodológica exhaustiva y resultados de análisis y diagnóstico por municipio (Nechí (Antioquia), Ayapel (Córdoba), San Marcos, Caimito, San Benito Abad, Majagual, Guaranda y Sucre (Sucre), Magangué, San Jacinto del Cauca, Achí (Bolívar)). </t>
   </si>
   <si>
-    <t>Diagnóstico predial, información alfanumérica, zonas inundables, afectación predial, restitución o formalización de tierras, Conflictos entre límites municipales</t>
+    <t>Diagnóstico predial, información alfanumérica, zonas inundables, afectación predial, restitución o formalización de tierras, conflictos entre límites municipales.</t>
   </si>
   <si>
     <t>PR0004</t>
@@ -191,19 +182,16 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0011/02_PRODUCTOS/Entregable 4.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">El documento corresponde al entregable número 4, el documento busca entregar una base de datos organizada con los documentos que contengan las fichas prediales de todos los predios objeto del estudio de la región, con todas las variables catastrales y de la propiedad. Este entregable 4 contiene la descripción de las actividades que se realizaron para generar la base de datos geográfica de los predios de la región de la Mojana con las características catastrales y de propiedad. El entregable se encuentra organizado en diez capítulos de la siguiente manera: Introducción, consideraciones generales, descripción general del entregable, descripción detallada del entregable, resultados de tenencia para la región de la Mojana, soporte de los resultados obtenidos, actividades de soporte, levantamiento de encuestas prediales, conclusiones y anexos.  </t>
-  </si>
-  <si>
-    <t>Este documento contiene la descripción de las actividades que se realizaron para generar la base de datos geográfica de los predios de la región de la Mojana con las características catastrales y de propiedad. El documento está dividido en diez capítulos, estructurados en niveles de detalle que van desde un alto nivel (nivel general), pasando por un nivel intermedio y llegando hasta un gran nivel de detalle. De esta manera, el primer, segundo y tercer capítulo hacen una presentación del documento, exponiendo las consideraciones generales y la descripción general del entregable, dando a conocer el objetivo del documento. Este entregable es el resultado de la fase 5 del proyecto, la cual se basó en la elaboración de encuestas prediales. En el tercer capítulo se describe de manera breve las actividades realizadas para la creación de la base de datos y el proceso de obtención del entregable. El cuatro capítulo pasa a un nivel intermedio de detalle en el que se describe detalladamente el entregable y se explica la base de datos creada bajo el concepto de “Geodatabase” de ArcGis. El quinto capítulo muestra los resultados de la encuesta de tenencia de la tierra para la región de la Mojana desde el análisis de los resultados y los porcentajes de propiedad por municipio. Este capítulo da unas primeras conclusiones que reflejan la encuesta, entre ellas, concluye sobre la informalidad de la tenencia de los predios del sector rural, la incongruencia en el registro de los predios, y la insuficiencia en la base de datos catastral y registral. Además de encontrar que la mitad de los predios estudiados poseen problemas de tenencia y/o restricciones de dominio. El capítulo 6 presenta el detalle de los análisis de los resultados del diagnóstico de tenencia de la tierra de los 11 municipios de manera detallada según el análisis de tendencias, el análisis y diagnóstico técnico jurídico, y el control de calidad. El capítulo 7 detalla las actividades de soporte que se realizaron previamente al levantamiento de información predial de las encuestas. Algunas de las actividades realizadas previas a la encuesta fueron: la definición del formato de encuesta predial, la socialización del proceso, la definición de la metodología y el equipo de trabajo y la definición de predios. El capítulo 8 expone el proceso completo para cada municipio, hasta el cargue de la información en el sistema. Se presentan las 5 actividades realizadas en cada uno de los municipios de manera detallada: 1. Selección de predios. 2. Generación de planos. 3. Trabajo de campo. 4. Cargue la encuesta al sistema. 5. Generación de resultados. El capítulo 9 cierra el documento con algunas conclusiones y recomendaciones. Entre lo que se concluye resalta la dificultad en la consecución de la información, la informalidad en la tenencia de la tierra, los porcentajes bajos de propietarios, la gran mayoría de la tenencia de la región se detecta como de poseedores y ocupantes y hace un llamado a proyectar la realización de un estudio detallado para determinar las condiciones precisas de tenencias de la tierra en la región. Por último, el capítulo 10 cierra con un anexo de glosario para poder entender algunos conceptos que maneja el documento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anexo 1: Glosario de términos. El anexo se encuentra en el documento. </t>
+    <t xml:space="preserve">El documento corresponde al entregable número 4. El documento busca entregar una base de datos organizada con los documentos que contengan las fichas prediales de todos los predios objeto del estudio de la región, con todas las variables catastrales y de la propiedad. Este entregable 4 contiene la descripción de las actividades que se realizaron para generar la base de datos geográfica de los predios de la región de La Mojana con las características catastrales y de propiedad. El entregable se encuentra organizado en diez capítulos de la siguiente manera: Introducción, consideraciones generales, descripción general del entregable, descripción detallada del entregable, resultados de tenencia para la región de La Mojana, soporte de los resultados obtenidos, actividades de soporte, levantamiento de encuestas prediales, conclusiones y anexos.  </t>
+  </si>
+  <si>
+    <t>Este documento contiene la descripción de las actividades que se realizaron para generar la base de datos geográfica de los predios de la región de La Mojana con las características catastrales y de propiedad. El documento está dividido en diez capítulos, estructurados en niveles de detalle que van desde un alto nivel (nivel general), pasando por un nivel intermedio y llegando hasta un gran nivel de detalle. De esta manera, el primer, segundo y tercer capítulo hacen una presentación del documento, exponiendo las consideraciones generales y la descripción general del entregable, dando a conocer el objetivo del documento. Este entregable es el resultado de la fase 5 del proyecto, la cual se basó en la elaboración de encuestas prediales. En el tercer capítulo se describe de manera breve las actividades realizadas para la creación de la base de datos y el proceso de obtención del entregable. El cuatro capítulo pasa a un nivel intermedio de detalle en el que se describe detalladamente el entregable y se explica la base de datos creada bajo el concepto de “Geodatabase” de ArcGis. El quinto capítulo muestra los resultados de la encuesta de tenencia de la tierra para la región de La Mojana desde el análisis de los resultados y los porcentajes de propiedad por municipio. Este capítulo da unas primeras conclusiones que reflejan la encuesta, entre ellas, concluye sobre la informalidad de la tenencia de los predios del sector rural, la incongruencia en el registro de los predios, y la insuficiencia en la base de datos catastral y registral. Además de encontrar que la mitad de los predios estudiados poseen problemas de tenencia y/o restricciones de dominio. El capítulo 6 presenta el detalle de los análisis de los resultados del diagnóstico de tenencia de la tierra de los 11 municipios de manera detallada según el análisis de tendencias, el análisis y diagnóstico técnico jurídico, y el control de calidad. El capítulo 7 detalla las actividades de soporte que se realizaron previamente al levantamiento de información predial de las encuestas. Algunas de las actividades realizadas previas a la encuesta fueron: la definición del formato de encuesta predial, la socialización del proceso, la definición de la metodología y el equipo de trabajo y la definición de predios. El capítulo 8 expone el proceso completo para cada municipio, hasta el cargue de la información en el sistema. Se presentan las 5 actividades realizadas en cada uno de los municipios de manera detallada: 1. Selección de predios. 2. Generación de planos. 3. Trabajo de campo. 4. Cargue la encuesta al sistema. 5. Generación de resultados. El capítulo 9 cierra el documento con algunas conclusiones y recomendaciones. Entre lo que se concluye resalta la dificultad en la consecución de la información, la informalidad en la tenencia de la tierra, los porcentajes bajos de propietarios, la gran mayoría de la tenencia de la región se detecta como de poseedores y ocupantes y hace un llamado a proyectar la realización de un estudio detallado para determinar las condiciones precisas de tenencias de la tierra en la región. Por último, el capítulo 10 cierra con un anexo de glosario para poder entender algunos conceptos que maneja el documento.</t>
   </si>
   <si>
     <t>Aunque este documento puede estar relacionado con los regímenes de uso, tenencia y propiedad de la tierra, no establece una relación con el contexto de inundaciones. Tal vez puede ser una información importante pero no precisamente para el campo social.</t>
   </si>
   <si>
-    <t>Variables catastrales. Fichas prediales, predios, encuesta predial, catastro, tenencia de la tierra.</t>
+    <t>Variables catastrales, fichas prediales, predios, encuesta predial, catastro, tenencia de la tierra.</t>
   </si>
   <si>
     <t>PR0005</t>
@@ -218,10 +206,7 @@
     <t xml:space="preserve">Este documento corresponde al entregable 5, el cual contiene la base de datos geográfica con la actualización de los valores unitarios comerciales de las zonas geoeconómicas, para cada uno de los municipios que hacen parte de la región de La Mojana. La base de datos se encuentra estructurada a partir de la información catastral disponible, así como de las tablas con los valores unitarios comerciales actualizados de terreno, para cada uno de los once municipios que hacen parte de la zona, complementado con el documento descriptivo y de análisis de los resultados obtenidos. El entregable consolida el resultado de la ejecución de la Fase 6 del cronograma “Fase de actualización de valores de zonas Geoeconómicas”, cuyo producto se refleja en la base de datos y se sustenta en el presente documento que presenta la descripción de las actividades que se realizaron para generar la base de datos geográfica de las zonas económicas de la región. El documento se encuentra organizado en seis capítulos de la siguiente manera: Introducción, consideraciones generales, descripción del entregable, detalle de la investigación económica y conclusiones. </t>
   </si>
   <si>
-    <t>Este documento contiene la descripción de las actividades que se realizaron para generar la base de datos geográfica (Geodatabase) de las zonas económicas de la región de la Mojana. En el primer capítulo del documento se introduce y presenta el entregable, el segundo presenta las consideraciones generales del proyecto, y el tercero hace una descripción general del entregable. En este capítulo se presentan las actividades que se llevaron a cabo para la realización del entregable, entre ellas: la preparación del estudio de mercado, la verificación espacial de zonas físicas, el análisis de caracterización de los predios, la definición de los puntos de investigación económica, el soporte y la realización de la investigación económica, el procesamiento y cargue de tablas de precios comerciales, el análisis estadístico de estudios de mercado, y por último, el ajuste y actualización de valores de zonas geoeconómicas. El cuarto capítulo desarrolla de manera detallada las actividades mencionadas en el tercer capítulo. El quinto capítulo y el más extenso, presenta el análisis de la consistencia de la información disponible, la caracterización de los predios, la tabla con los valores comerciales unitarios definidos y aplicados para la liquidación de los valores comerciales de cada uno de los predios de los 11 municipios que conforman la región de la Mojana. Por último, el sexto capítulo presenta unas conclusiones del análisis del proceso, en el que resalta que los valores unitarios de terreno más significativo tanto de las áreas urbanas como de las áreas rurales, se encuentran en aquellos municipios que presentan mayor dinámica dentro de la región, dado las condiciones de accesibilidad o de considerarse como polos de desarrollo comercial y regional. Adicionalmente, las zonas rurales, cuentan con sectores en los cuales las posibilidades de afectación por los fenómenos de inundación son menores.</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>Este documento contiene la descripción de las actividades que se realizaron para generar la base de datos geográfica (Geodatabase) de las zonas económicas de la región de La Mojana. En el primer capítulo del documento se introduce y presenta el entregable, el segundo presenta las consideraciones generales del proyecto, y el tercero hace una descripción general del entregable. En este capítulo se presentan las actividades que se llevaron a cabo para la realización del entregable, entre ellas: la preparación del estudio de mercado, la verificación espacial de zonas físicas, el análisis de caracterización de los predios, la definición de los puntos de investigación económica, el soporte y la realización de la investigación económica, el procesamiento y cargue de tablas de precios comerciales, el análisis estadístico de estudios de mercado, y por último, el ajuste y actualización de valores de zonas geoeconómicas. El cuarto capítulo desarrolla de manera detallada las actividades mencionadas en el tercer capítulo. El quinto capítulo y el más extenso, presenta el análisis de la consistencia de la información disponible, la caracterización de los predios, la tabla con los valores comerciales unitarios definidos y aplicados para la liquidación de los valores comerciales de cada uno de los predios de los 11 municipios que conforman la región de La Mojana. Por último, el sexto capítulo presenta unas conclusiones del análisis del proceso, en el que resalta que los valores unitarios de terreno más significativo tanto de las áreas urbanas como de las áreas rurales, se encuentran en aquellos municipios que presentan mayor dinámica dentro de la región, dado las condiciones de accesibilidad o de considerarse como polos de desarrollo comercial y regional. Adicionalmente, las zonas rurales, cuentan con sectores en los cuales las posibilidades de afectación por los fenómenos de inundación son menores.</t>
   </si>
   <si>
     <t xml:space="preserve">Los resultados del análisis de información están recogidos, en su mayoría, en tablas y gráficas. Puede contener información importante para el componente social, pero es menor. </t>
@@ -239,10 +224,10 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0011/02_PRODUCTOS/Entregable 6.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">El entregable 6 corresponde al informe sobre precios comerciales, la metodología empleada y recomendaciones al FONDO ADAPTACIÓN para los procesos de posibles adquisiciones prediales y análisis costo –beneficio, junto con un informe final del estudio. Este entregable se ha estructurado a partir de la información catastral disponible, haciendo uso de las tablas con los valores unitarios comerciales actualizados de terreno y construcción, para cada uno de los once (11) municipios que hacen parte de la zona. El documento se encuentra organizado en siete capítulos, de la siguiente manera: Introducción, consideraciones generales, descripción general del entregable y metodología, resultados de investigación y precios comerciales, recomendaciones para procesos de posibles adquisiciones, análisis costo-beneficio y conclusiones. </t>
-  </si>
-  <si>
-    <t>Este documento contiene la descripción de las actividades correspondientes a la fase denominada “Consolidación”, complementadas con aquellas que, durante el desarrollo de los trabajos, se determinaron como esenciales y debían ser redefinidas o incorporadas. De igual, este informe incluye los resultados obtenidos de las actividades asociadas al Entregable 5, dada su incidencia y posible repercusión en el procesamiento de los datos y por ende en los valores comerciales estimados para los predios que conforman cada uno de los municipios que hacen parte de la región objeto de estudio. El capítulo 1 introduce y presenta el documento. El capítulo 2 presenta las consideraciones generales que se tuvieron en cuenta para la generación del informe. El capítulo 3 presenta una descripción general del entregable y la metodología usada para el cálculo y aplicación de los valores resultantes de actualizar las zonas geoeconómicas, a cada predio de la región. El capítulo 4 presenta los resultados de la investigación de precios comerciales, la cual fue realizada en terreno por expertos de la empresa. En este mismo capítulo se presenta un análisis de dichos resultados que fueron entregados al FONDO en la Geodatabase final. El capítulo 5 presenta las recomendaciones al FONDO en cuanto a consideraciones que deberá tener en cuenta en caso de futuras adquisiciones en la región. El capítulo 6 presenta lo referente al tema de la relación costo-beneficio, enfocada principalmente al costo de los predios que hacen parte de la región de La Mojana. Por último, el Capítulo 7 presenta las conclusiones relacionadas con los aspectos esenciales asociados con el presente entregable.  Entre ellas, se presenta el número total de predios urbanos y rurales que conforman La Mojana, dando cuenta que, de acuerdo con la distribución del número total de predios (84.760), la región es principalmente urbana, dado que el 73% de los mismos se encuentran ubicados en la zona urbana y los centros poblados. Sin embargo, en términos de área geográfica, su vocación es predominantemente rural. Por otro lado, se pone en evidencia la inconsistencia entre los datos de las entidades encargadas del manejo de la información relacionada con la gestión predial y de registro.</t>
+    <t xml:space="preserve">El entregable 6 corresponde al informe sobre precios comerciales, la metodología empleada y recomendaciones al Fondo Adaptación para los procesos de posibles adquisiciones prediales y análisis costo–beneficio, junto con un informe final del estudio. Este entregable se ha estructurado a partir de la información catastral disponible, haciendo uso de las tablas con los valores unitarios comerciales actualizados de terreno y construcción, para cada uno de los once (11) municipios que hacen parte de la zona. El documento se encuentra organizado en siete capítulos de la siguiente manera: Introducción, consideraciones generales, descripción general del entregable y metodología, resultados de investigación y precios comerciales, recomendaciones para procesos de posibles adquisiciones, análisis costo-beneficio y conclusiones. </t>
+  </si>
+  <si>
+    <t>Este documento contiene la descripción de las actividades correspondientes a la fase denominada “Consolidación”, complementadas con aquellas que, durante el desarrollo de los trabajos, se determinaron como esenciales y debían ser redefinidas o incorporadas. De igual, este informe incluye los resultados obtenidos de las actividades asociadas al entregable 5, dada su incidencia y posible repercusión en el procesamiento de los datos y por ende en los valores comerciales estimados para los predios que conforman cada uno de los municipios que hacen parte de la región objeto de estudio. El capítulo 1 introduce y presenta el documento. El capítulo 2 presenta las consideraciones generales que se tuvieron en cuenta para la generación del informe. El capítulo 3 presenta una descripción general del entregable y la metodología usada para el cálculo y aplicación de los valores resultantes de actualizar las zonas geoeconómicas, a cada predio de la región. El capítulo 4 presenta los resultados de la investigación de precios comerciales, la cual fue realizada en terreno por expertos de la empresa. En este mismo capítulo se presenta un análisis de dichos resultados que fueron entregados al Fondo Adaptación en la Geodatabase final. El capítulo 5 presenta las recomendaciones al Fondo Adaptación en cuanto a consideraciones que deberá tener en cuenta en caso de futuras adquisiciones en la región. El capítulo 6 presenta lo referente al tema de la relación costo-beneficio, enfocada principalmente al costo de los predios que hacen parte de la región de La Mojana. Por último, el capítulo 7 presenta las conclusiones relacionadas con los aspectos esenciales asociados con el presente entregable. Entre ellas, se presenta el número total de predios urbanos y rurales que conforman La Mojana, dando cuenta que, de acuerdo con la distribución del número total de predios (84.760), la región es principalmente urbana, dado que el 73% de los mismos se encuentran ubicados en la zona urbana y los centros poblados. Sin embargo, en términos de área geográfica, su vocación es predominantemente rural. Por otro lado, se pone en evidencia la inconsistencia entre los datos de las entidades encargadas del manejo de la información relacionada con la gestión predial y de registro.</t>
   </si>
   <si>
     <t>Tiene demasiadas tablas, sin embargo, las conclusiones tienen información importante.</t>
@@ -257,10 +242,10 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0011/02_PRODUCTOS/Entregable Informe Final.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">El informe final contiene las actividades y resultados principales que se desarrollaron dentro del proyecto correspondiente al contrato 287 de 2013. El documento presenta un análisis exhaustivo de la situación predial y de tenencia en la región de La Mojana, que abarca once municipios en los departamento de Antioquía, Bolívar, Sucre y Córdoba. El objetivo principal del estudio es proporcionar una base de datos geográfica actualizada que facilite la gestión del territorio y la toma de decisiones en el contexto de desarrollo económico y social. El documento se encuentra organizado en cinco capítulos de la siguiente manera: Introducción, consideraciones generales, informe final del estudio, conclusiones y anexos. </t>
-  </si>
-  <si>
-    <t>El informe final del proyecto tenía como objetivo principal realizar un diagnóstico integral de la información predial y de tenencia en la región de La Mojana, con el fin de actualizar y consolidar una base de datos geográfica que soporte la toma de decisiones en materia de gestión territorial y desarrollo económico. En el informe se sintetizan los resultados y avances principales. En su totalidad el proyecto se desarrolló en varias fases, cada una con actividades específicas que incluyeron: Definición del plan de trabajo y cronograma, inventario y depuración de datos prediales, evaluación de la información disponible y su análisis técnico-jurídico, recolección de datos mediante encuestas prediales, determinación de valores comerciales de las zonas económicas e integración de resultados en una base de datos geográfica final. Entre los resultados principales del proyecto se resalta la consolidación de una base de datos espacial en formato Geodatabase (GDB) que incluye información geográfica y alfanumérica de los predios en La Mojana. También se realizaron encuestas prediales que permitieron obtener datos actualizados sobre la tenencia y uso del suelo. Por otro lado, se identificaron diferencias significativas entre los porcentajes de predios esperados inundados y la situación real encontrada en terreno, lo que refleja la variabilidad de la información de mapas temporales. Se generaron diagnósticos técnicos-jurídicos que facilitaron la identificación de la situación legal de los predios. El estudio concluye que la actualización de la información predial y de tenencia es crucial para la gestión eficiente del territorio en La Mojana. Se recomienda continuar con la recolección y análisis de datos para mantener la base de datos actualizada y relevante. Además, se sugiere implementar un sistema de monitoreo continuo que permita evaluar cambios en la tenencia y uso del suelo a lo largo del tiempo.</t>
+    <t xml:space="preserve">El informe final contiene las actividades y resultados principales que se desarrollaron dentro del proyecto correspondiente al contrato 287 de 2013. El documento presenta un análisis exhaustivo de la situación predial y de tenencia en la región de La Mojana, que abarca once municipios en los departamento de Antioquía, Bolívar, Sucre y Córdoba. El objetivo principal del estudio es proporcionar una base de datos geográfica actualizada que facilite la gestión del territorio y la toma de decisiones en el contexto de desarrollo económico y social. El documento se encuentra organizado en cinco capítulos de la siguiente manera: introducción, consideraciones generales, informe final del estudio, conclusiones y anexos. </t>
+  </si>
+  <si>
+    <t>El informe final del proyecto tenía como objetivo principal realizar un diagnóstico integral de la información predial y de tenencia en la región de La Mojana, con el fin de actualizar y consolidar una base de datos geográfica que soporte la toma de decisiones en materia de gestión territorial y desarrollo económico. En el informe se sintetizan los resultados y avances principales. En su totalidad el proyecto se desarrolló en varias fases, cada una con actividades específicas que incluyeron: definición del plan de trabajo y cronograma, inventario y depuración de datos prediales, evaluación de la información disponible y su análisis técnico-jurídico, recolección de datos mediante encuestas prediales, determinación de valores comerciales de las zonas económicas e integración de resultados en una base de datos geográfica final. Entre los resultados principales del proyecto se resalta la consolidación de una base de datos espacial en formato Geodatabase (GDB) que incluye información geográfica y alfanumérica de los predios en La Mojana. También se realizaron encuestas prediales que permitieron obtener datos actualizados sobre la tenencia y uso del suelo. Por otro lado, se identificaron diferencias significativas entre los porcentajes de predios esperados inundados y la situación real encontrada en terreno, lo que refleja la variabilidad de la información de mapas temporales. Se generaron diagnósticos técnicos-jurídicos que facilitaron la identificación de la situación legal de los predios. El estudio concluye que la actualización de la información predial y de tenencia es crucial para la gestión eficiente del territorio en La Mojana. Se recomienda continuar con la recolección y análisis de datos para mantener la base de datos actualizada y relevante. Además, se sugiere implementar un sistema de monitoreo continuo que permita evaluar cambios en la tenencia y uso del suelo a lo largo del tiempo.</t>
   </si>
   <si>
     <t xml:space="preserve">El documento realiza una síntesis detallada de los aspectos más relevantes del proyecto, se omiten tablas y figuras debido a que estas se encuentran en los entregables. </t>
@@ -269,52 +254,25 @@
     <t>Diagnóstico predial, información geográfica, información alfanumérica, catastro, uso del suelo.</t>
   </si>
   <si>
-    <t>PR0008</t>
-  </si>
-  <si>
-    <t>Mojana.gdb</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0011/02_PRODUCTOS/Geodatabases/Geodatabase final total consolidada la Mojana.gdb/MOJANA.gdb</t>
-  </si>
-  <si>
-    <t>La geodatabase "MOJANA.gdb" contiene información sobre la geometría de los predios, zonas geoeconómicas urbanas y rurales y zonas físicas (urbanas y rurales) de la Mojana,  además de datos sensibles como propiedades,  análisis jurídicos y encuestas.  Esta información es crucial para el diagnóstico predial del área</t>
-  </si>
-  <si>
-    <t>Carpeta</t>
-  </si>
-  <si>
-    <t>folder</t>
-  </si>
-  <si>
-    <t>La geodatabase "MOJANA.gdb" alberga información relevante para el diagnóstico predial de los municipios del área núcleo de la Mojana, como parte de un proyecto de análisis territorial.  La geodatabase contiene 10 feature classes en formato shapefile (.shp) que representan la geometría de predios, zonas geoeconómicas, zonas físicas, entre otras, utilizando geometría de polígonos. Además, incluye 8 datasets que contienen información sensible, como datos de los propietarios, análisis jurídicos, encuestas, notariado y registros.</t>
-  </si>
-  <si>
-    <t>La Geodatabase contiene información sensible</t>
-  </si>
-  <si>
-    <t>Mojana;  diagnóstico predial;  geodatabase (GDB);  shapefiles (.shp);  datos geoespaciales;  información predial;  geometría de polígonos;  zonas geoeconómicas;  zonas físicas;  análisis territorial;  datos sensibles;  propiedades;  análisis jurídico;  encuestas;  notariado;  registros.</t>
-  </si>
-  <si>
     <t>PR0009</t>
   </si>
   <si>
     <t>Diccionario_de_Datos_de_la_geodatabase_final_consolidada</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0011/02_PRODUCTOS/Diccionario_de_Datos_de_la_geodatabase_final_consolidada</t>
-  </si>
-  <si>
-    <t>El documento es una base de datos geográfica que busca proporcionar un marco de referencia para la gestión de información geográfica relacionada con el catastro y la tenencia de la tierra, así como la actualización de valores comerciales en diversas zonas de once municipios de la región de la Mojana. El documento se encuentra organizado de la siguiente manera: introducción,  catastro, análisis geográfico, encuestas, análisis jurídico y estudio económico.</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0011/02_PRODUCTOS/Diccionario_de_Datos_de_la_geodatabase_final_consolidada.pdf</t>
+  </si>
+  <si>
+    <t>El documento es una base de datos geográfica que busca proporcionar un marco de referencia para la gestión de información geográfica relacionada con el catastro y la tenencia de la tierra, así como la actualización de valores comerciales en diversas zonas de once municipios de la región de La Mojana. El documento se encuentra organizado de la siguiente manera: introducción, catastro, análisis geográfico, encuestas, análisis jurídico y estudio económico.</t>
   </si>
   <si>
     <t>Diccionario de datos</t>
   </si>
   <si>
-    <t>El documento presenta un análisis exhaustivo del diagnóstico predial y de tenencia en 11 municipios de la región de la Mojana (Nechí (Antioquia), Ayapel (Córdoba), San Marcos, Caimito, San Benito Abad, Majagual, Guaranda y Sucre (Sucre), Magangué, San Jacinto del Cauca, Achí (Bolívar)), con el objetivo de actualizar los valores comerciales de las zonas geoeconómicas. La metodología utilizada se centró en la realización de encuestas y registros catastrales, complementado con análisis geoespaciales.  Entre los resultados principales se encuentra la actualización de valores comerciales en los predios estudiados, así como la clasificación de los mismos según su situación legal y características físicas. El documento proporciona un marco técnico y metodológico robusto para la gestión de información catastral y económica, contribuyendo a la actualización y mejora de los registros de tenencia de la tierra en la región de la Mojana.</t>
-  </si>
-  <si>
-    <t>El documento es un recurso valioso para la gestión catastral y la toma de decisiones en la región de la Mojana, pero presenta áreas de mejora en términos de actualización de datos, profundidad de información y presentación visual.</t>
+    <t>El documento presenta un análisis exhaustivo del diagnóstico predial y de tenencia en 11 municipios de la región de La Mojana (Nechí (Antioquia), Ayapel (Córdoba), San Marcos, Caimito, San Benito Abad, Majagual, Guaranda y Sucre (Sucre), Magangué, San Jacinto del Cauca, Achí (Bolívar)), con el objetivo de actualizar los valores comerciales de las zonas geoeconómicas. La metodología utilizada se centró en la realización de encuestas y registros catastrales, complementado con análisis geoespaciales.  Entre los resultados principales se encuentra la actualización de valores comerciales en los predios estudiados, así como la clasificación de los mismos según su situación legal y características físicas. El documento proporciona un marco técnico y metodológico robusto para la gestión de información catastral y económica, contribuyendo a la actualización y mejora de los registros de tenencia de la tierra en la región de La Mojana.</t>
+  </si>
+  <si>
+    <t>El documento es un recurso valioso para la gestión catastral y la toma de decisiones en la región de La Mojana, pero presenta áreas de mejora en términos de actualización de datos, profundidad de información y presentación visual.</t>
   </si>
   <si>
     <t xml:space="preserve">Diagnóstico predial, tenencia de la tierra, información cartográfica, valores comerciales, catastro. </t>
@@ -324,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,21 +380,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
@@ -771,6 +726,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -780,13 +742,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -806,7 +761,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R10" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R9" totalsRowShown="0" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -822,9 +777,9 @@
     <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="6"/>
     <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="5"/>
     <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="3" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="3"/>
     <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="1" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="1"/>
     <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1094,18 +1049,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="105.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
@@ -1117,7 +1073,7 @@
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1216,31 +1172,31 @@
       <c r="N2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>28</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="E3" s="1">
         <v>2014</v>
@@ -1261,7 +1217,7 @@
         <v>23</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>25</v>
@@ -1270,33 +1226,33 @@
         <v>26</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="E4" s="1">
         <v>2014</v>
@@ -1317,7 +1273,7 @@
         <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>25</v>
@@ -1326,33 +1282,33 @@
         <v>26</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>46</v>
+        <v>23</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1">
         <v>2014</v>
@@ -1372,8 +1328,8 @@
       <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>51</v>
+      <c r="K5" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>25</v>
@@ -1382,33 +1338,33 @@
         <v>26</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>55</v>
+        <v>23</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1">
         <v>2014</v>
@@ -1429,7 +1385,7 @@
         <v>23</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>25</v>
@@ -1438,33 +1394,33 @@
         <v>26</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E7" s="1">
         <v>2014</v>
@@ -1485,7 +1441,7 @@
         <v>23</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>25</v>
@@ -1494,33 +1450,33 @@
         <v>26</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1">
         <v>2014</v>
@@ -1541,7 +1497,7 @@
         <v>23</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>25</v>
@@ -1550,33 +1506,33 @@
         <v>26</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E9" s="1">
         <v>2014</v>
@@ -1597,84 +1553,28 @@
         <v>23</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1687,6 +1587,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1830,37 +1739,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>